--- a/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H2">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I2">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J2">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.741242404255645</v>
+        <v>0.757644</v>
       </c>
       <c r="N2">
-        <v>0.741242404255645</v>
+        <v>2.272932</v>
       </c>
       <c r="O2">
-        <v>0.02516332029267759</v>
+        <v>0.02401898721285653</v>
       </c>
       <c r="P2">
-        <v>0.02516332029267759</v>
+        <v>0.02518910262217759</v>
       </c>
       <c r="Q2">
-        <v>10.90146084450578</v>
+        <v>0.126085094096</v>
       </c>
       <c r="R2">
-        <v>10.90146084450578</v>
+        <v>1.134765846864</v>
       </c>
       <c r="S2">
-        <v>0.02328658210216678</v>
+        <v>0.0002384684188560394</v>
       </c>
       <c r="T2">
-        <v>0.02328658210216678</v>
+        <v>0.0002586893871717138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H3">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I3">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J3">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.4661461876977</v>
+        <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>23.4661461876977</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.7966168006116678</v>
+        <v>0.8001381730141521</v>
       </c>
       <c r="P3">
-        <v>0.7966168006116678</v>
+        <v>0.8391179183936208</v>
       </c>
       <c r="Q3">
-        <v>345.1168907336386</v>
+        <v>4.200239416435111</v>
       </c>
       <c r="R3">
-        <v>345.1168907336386</v>
+        <v>37.802154747916</v>
       </c>
       <c r="S3">
-        <v>0.737203290966619</v>
+        <v>0.007944035412238875</v>
       </c>
       <c r="T3">
-        <v>0.737203290966619</v>
+        <v>0.008617651185514295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H4">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I4">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J4">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.494130275780154</v>
+        <v>0.6151326666666667</v>
       </c>
       <c r="N4">
-        <v>0.494130275780154</v>
+        <v>1.845398</v>
       </c>
       <c r="O4">
-        <v>0.01677448338678262</v>
+        <v>0.0195010633686494</v>
       </c>
       <c r="P4">
-        <v>0.01677448338678262</v>
+        <v>0.02045108239083319</v>
       </c>
       <c r="Q4">
-        <v>7.267179835605266</v>
+        <v>0.1023687380328889</v>
       </c>
       <c r="R4">
-        <v>7.267179835605266</v>
+        <v>0.9213186422959999</v>
       </c>
       <c r="S4">
-        <v>0.01552340390951566</v>
+        <v>0.000193612982359392</v>
       </c>
       <c r="T4">
-        <v>0.01552340390951566</v>
+        <v>0.0002100304266506461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H5">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I5">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J5">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5065132849578</v>
+        <v>0.5356743333333333</v>
       </c>
       <c r="N5">
-        <v>0.5065132849578</v>
+        <v>1.607023</v>
       </c>
       <c r="O5">
-        <v>0.01719485548683426</v>
+        <v>0.01698205880675987</v>
       </c>
       <c r="P5">
-        <v>0.01719485548683426</v>
+        <v>0.01780936132853939</v>
       </c>
       <c r="Q5">
-        <v>7.449296898676994</v>
+        <v>0.08914549408844444</v>
       </c>
       <c r="R5">
-        <v>7.449296898676994</v>
+        <v>0.8023094467959999</v>
       </c>
       <c r="S5">
-        <v>0.01591242369336992</v>
+        <v>0.0001686034751040898</v>
       </c>
       <c r="T5">
-        <v>0.01591242369336992</v>
+        <v>0.00018290023416488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H6">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I6">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J6">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.24922530118068</v>
+        <v>4.395899500000001</v>
       </c>
       <c r="N6">
-        <v>4.24922530118068</v>
+        <v>8.791799000000001</v>
       </c>
       <c r="O6">
-        <v>0.1442505402220377</v>
+        <v>0.139359717597582</v>
       </c>
       <c r="P6">
-        <v>0.1442505402220377</v>
+        <v>0.09743253526482902</v>
       </c>
       <c r="Q6">
-        <v>62.49340698043542</v>
+        <v>0.7315538723913334</v>
       </c>
       <c r="R6">
-        <v>62.49340698043542</v>
+        <v>4.389323234348001</v>
       </c>
       <c r="S6">
-        <v>0.1334920038012581</v>
+        <v>0.001383609192727791</v>
       </c>
       <c r="T6">
-        <v>0.1334920038012581</v>
+        <v>0.001000621705993354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H7">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I7">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J7">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.741242404255645</v>
+        <v>0.757644</v>
       </c>
       <c r="N7">
-        <v>0.741242404255645</v>
+        <v>2.272932</v>
       </c>
       <c r="O7">
-        <v>0.02516332029267759</v>
+        <v>0.02401898721285653</v>
       </c>
       <c r="P7">
-        <v>0.02516332029267759</v>
+        <v>0.02518910262217759</v>
       </c>
       <c r="Q7">
-        <v>0.8785826880681893</v>
+        <v>11.306332524112</v>
       </c>
       <c r="R7">
-        <v>0.8785826880681893</v>
+        <v>101.756992717008</v>
       </c>
       <c r="S7">
-        <v>0.001876738190510815</v>
+        <v>0.02138399673186378</v>
       </c>
       <c r="T7">
-        <v>0.001876738190510815</v>
+        <v>0.02319725620853495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H8">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I8">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J8">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.4661461876977</v>
+        <v>25.23919433333333</v>
       </c>
       <c r="N8">
-        <v>23.4661461876977</v>
+        <v>75.717583</v>
       </c>
       <c r="O8">
-        <v>0.7966168006116678</v>
+        <v>0.8001381730141521</v>
       </c>
       <c r="P8">
-        <v>0.7966168006116678</v>
+        <v>0.8391179183936208</v>
       </c>
       <c r="Q8">
-        <v>27.81404528103335</v>
+        <v>376.6448672111835</v>
       </c>
       <c r="R8">
-        <v>27.81404528103335</v>
+        <v>3389.803804900652</v>
       </c>
       <c r="S8">
-        <v>0.05941350964504894</v>
+        <v>0.7123594315257231</v>
       </c>
       <c r="T8">
-        <v>0.05941350964504894</v>
+        <v>0.7727640652434874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H9">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I9">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J9">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.494130275780154</v>
+        <v>0.6151326666666667</v>
       </c>
       <c r="N9">
-        <v>0.494130275780154</v>
+        <v>1.845398</v>
       </c>
       <c r="O9">
-        <v>0.01677448338678262</v>
+        <v>0.0195010633686494</v>
       </c>
       <c r="P9">
-        <v>0.01677448338678262</v>
+        <v>0.02045108239083319</v>
       </c>
       <c r="Q9">
-        <v>0.585684660589218</v>
+        <v>9.179633806612443</v>
       </c>
       <c r="R9">
-        <v>0.585684660589218</v>
+        <v>82.61670425951198</v>
       </c>
       <c r="S9">
-        <v>0.001251079477266959</v>
+        <v>0.01736170936965468</v>
       </c>
       <c r="T9">
-        <v>0.001251079477266959</v>
+        <v>0.0188338983360338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H10">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I10">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J10">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5065132849578</v>
+        <v>0.5356743333333333</v>
       </c>
       <c r="N10">
-        <v>0.5065132849578</v>
+        <v>1.607023</v>
       </c>
       <c r="O10">
-        <v>0.01719485548683426</v>
+        <v>0.01698205880675987</v>
       </c>
       <c r="P10">
-        <v>0.01719485548683426</v>
+        <v>0.01780936132853939</v>
       </c>
       <c r="Q10">
-        <v>0.6003620420061574</v>
+        <v>7.99387593289022</v>
       </c>
       <c r="R10">
-        <v>0.6003620420061574</v>
+        <v>71.94488339601199</v>
       </c>
       <c r="S10">
-        <v>0.001282431793464346</v>
+        <v>0.0151190508911089</v>
       </c>
       <c r="T10">
-        <v>0.001282431793464346</v>
+        <v>0.01640107326748378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.92301466666667</v>
+      </c>
+      <c r="H11">
+        <v>44.76904399999999</v>
+      </c>
+      <c r="I11">
+        <v>0.8902955208876449</v>
+      </c>
+      <c r="J11">
+        <v>0.920924280490686</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.395899500000001</v>
+      </c>
+      <c r="N11">
+        <v>8.791799000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.139359717597582</v>
+      </c>
+      <c r="P11">
+        <v>0.09743253526482902</v>
+      </c>
+      <c r="Q11">
+        <v>65.60007271169266</v>
+      </c>
+      <c r="R11">
+        <v>393.600436270156</v>
+      </c>
+      <c r="S11">
+        <v>0.1240713323692944</v>
+      </c>
+      <c r="T11">
+        <v>0.08972798743514605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.6724345</v>
+      </c>
+      <c r="H12">
+        <v>3.344869</v>
+      </c>
+      <c r="I12">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J12">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.757644</v>
+      </c>
+      <c r="N12">
+        <v>2.272932</v>
+      </c>
+      <c r="O12">
+        <v>0.02401898721285653</v>
+      </c>
+      <c r="P12">
+        <v>0.02518910262217759</v>
+      </c>
+      <c r="Q12">
+        <v>1.267109964318</v>
+      </c>
+      <c r="R12">
+        <v>7.602659785908</v>
+      </c>
+      <c r="S12">
+        <v>0.002396522062136702</v>
+      </c>
+      <c r="T12">
+        <v>0.001733157026470927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.18528390041374</v>
-      </c>
-      <c r="H11">
-        <v>1.18528390041374</v>
-      </c>
-      <c r="I11">
-        <v>0.07458229552707067</v>
-      </c>
-      <c r="J11">
-        <v>0.07458229552707067</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.24922530118068</v>
-      </c>
-      <c r="N11">
-        <v>4.24922530118068</v>
-      </c>
-      <c r="O11">
-        <v>0.1442505402220377</v>
-      </c>
-      <c r="P11">
-        <v>0.1442505402220377</v>
-      </c>
-      <c r="Q11">
-        <v>5.036538338720186</v>
-      </c>
-      <c r="R11">
-        <v>5.036538338720186</v>
-      </c>
-      <c r="S11">
-        <v>0.01075853642077961</v>
-      </c>
-      <c r="T11">
-        <v>0.01075853642077961</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.6724345</v>
+      </c>
+      <c r="H13">
+        <v>3.344869</v>
+      </c>
+      <c r="I13">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J13">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.23919433333333</v>
+      </c>
+      <c r="N13">
+        <v>75.717583</v>
+      </c>
+      <c r="O13">
+        <v>0.8001381730141521</v>
+      </c>
+      <c r="P13">
+        <v>0.8391179183936208</v>
+      </c>
+      <c r="Q13">
+        <v>42.21089935527117</v>
+      </c>
+      <c r="R13">
+        <v>253.265396131627</v>
+      </c>
+      <c r="S13">
+        <v>0.07983470607619009</v>
+      </c>
+      <c r="T13">
+        <v>0.0577362019646191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.6724345</v>
+      </c>
+      <c r="H14">
+        <v>3.344869</v>
+      </c>
+      <c r="I14">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J14">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6151326666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.845398</v>
+      </c>
+      <c r="O14">
+        <v>0.0195010633686494</v>
+      </c>
+      <c r="P14">
+        <v>0.02045108239083319</v>
+      </c>
+      <c r="Q14">
+        <v>1.028769093810333</v>
+      </c>
+      <c r="R14">
+        <v>6.172614562862</v>
+      </c>
+      <c r="S14">
+        <v>0.001945741016635317</v>
+      </c>
+      <c r="T14">
+        <v>0.00140715362814875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.6724345</v>
+      </c>
+      <c r="H15">
+        <v>3.344869</v>
+      </c>
+      <c r="I15">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J15">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5356743333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.607023</v>
+      </c>
+      <c r="O15">
+        <v>0.01698205880675987</v>
+      </c>
+      <c r="P15">
+        <v>0.01780936132853939</v>
+      </c>
+      <c r="Q15">
+        <v>0.8958802358311666</v>
+      </c>
+      <c r="R15">
+        <v>5.375281414987</v>
+      </c>
+      <c r="S15">
+        <v>0.001694404440546883</v>
+      </c>
+      <c r="T15">
+        <v>0.001225387826890724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.6724345</v>
+      </c>
+      <c r="H16">
+        <v>3.344869</v>
+      </c>
+      <c r="I16">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J16">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.395899500000001</v>
+      </c>
+      <c r="N16">
+        <v>8.791799000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.139359717597582</v>
+      </c>
+      <c r="P16">
+        <v>0.09743253526482902</v>
+      </c>
+      <c r="Q16">
+        <v>7.351853982332751</v>
+      </c>
+      <c r="R16">
+        <v>29.40741592933101</v>
+      </c>
+      <c r="S16">
+        <v>0.01390477603555984</v>
+      </c>
+      <c r="T16">
+        <v>0.00670392612368961</v>
       </c>
     </row>
   </sheetData>
